--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1419167.27709319</v>
+        <v>1414453.366138826</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516702</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9589471.385761224</v>
+        <v>9587111.468199549</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>166.6033724357637</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53.27064365780389</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>73.09177164960006</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>9.110409776860671</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>61.39345098864458</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>40.02170330568908</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -899,16 +899,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>238.5799804038984</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>371.045726580617</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968061</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>83.26578655052985</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>103.8812695548171</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>65.92202770962915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>220.8028037197058</v>
+        <v>76.47341699539027</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>206.4502314363189</v>
       </c>
       <c r="X10" t="n">
-        <v>11.61260049965499</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.24155044942175</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>20.35166949961234</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>55.63584681832643</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>84.88269029501193</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1610,22 +1610,22 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>26.32608977062915</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>59.14146526523453</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>55.63584681832549</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>56.23233002700196</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414245</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542117</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820275</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954277</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345497</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852508</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568056</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.505762629103</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838857</v>
+        <v>24.17382596574991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828869</v>
+        <v>52.06849973565004</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161062</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696761</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034456</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813242</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162025</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885337</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431702</v>
+        <v>70.57601873167836</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459942</v>
+        <v>55.72314698196077</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643915</v>
+        <v>41.29686219380049</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931826</v>
+        <v>41.2233042466796</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908553</v>
+        <v>42.97275566644687</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147766</v>
+        <v>53.79159358883901</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804971</v>
+        <v>41.14384575541105</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922164</v>
+        <v>18.98356133658298</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367756</v>
+        <v>9.882059701038898</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920487</v>
+        <v>88.00800320656622</v>
       </c>
       <c r="T34" t="n">
-        <v>127.025404013377</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404468</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273128</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480629</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947755</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714518</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.973045515508</v>
+        <v>648.8009820296327</v>
       </c>
       <c r="C2" t="n">
-        <v>362.973045515508</v>
+        <v>255.6254805325632</v>
       </c>
       <c r="D2" t="n">
-        <v>362.973045515508</v>
+        <v>255.6254805325632</v>
       </c>
       <c r="E2" t="n">
-        <v>362.973045515508</v>
+        <v>255.6254805325632</v>
       </c>
       <c r="F2" t="n">
-        <v>350.1190110858898</v>
+        <v>242.7714461029451</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>233.6490946313523</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K2" t="n">
-        <v>188.145432303583</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>188.145432303583</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M2" t="n">
-        <v>673.899032935483</v>
+        <v>1376.714099066287</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572945</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465273</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596795</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737744</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023266</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964316</v>
+        <v>1870.655869043496</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523733</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="U2" t="n">
-        <v>1491.023168958332</v>
+        <v>1391.402537037511</v>
       </c>
       <c r="V2" t="n">
-        <v>1148.91635966185</v>
+        <v>1049.29572774103</v>
       </c>
       <c r="W2" t="n">
-        <v>1148.91635966185</v>
+        <v>1049.29572774103</v>
       </c>
       <c r="X2" t="n">
-        <v>759.4637545949068</v>
+        <v>1049.29572774103</v>
       </c>
       <c r="Y2" t="n">
-        <v>362.973045515508</v>
+        <v>1049.29572774103</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021388</v>
+        <v>556.1927859813184</v>
       </c>
       <c r="C3" t="n">
-        <v>505.159187462231</v>
+        <v>405.5385555414106</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837113</v>
+        <v>275.4495881628909</v>
       </c>
       <c r="E3" t="n">
-        <v>375.0702200837113</v>
+        <v>139.0030972737786</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>139.0030972737786</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>139.0030972737786</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284328</v>
+        <v>50.70568087437955</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>50.78821608954439</v>
       </c>
       <c r="L3" t="n">
-        <v>640.1767275127955</v>
+        <v>534.3543019878576</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875475</v>
+        <v>1047.956980597546</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875475</v>
+        <v>1561.559659207235</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466456</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182853</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737744</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635808</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535677</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734585</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413227</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784294</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917581</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675928</v>
+        <v>887.3033373467724</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431001</v>
+        <v>707.9891204222797</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.1130112616399</v>
+        <v>352.6951719946212</v>
       </c>
       <c r="C4" t="n">
-        <v>680.1130112616399</v>
+        <v>352.6951719946212</v>
       </c>
       <c r="D4" t="n">
-        <v>680.1130112616399</v>
+        <v>197.062058897136</v>
       </c>
       <c r="E4" t="n">
-        <v>524.5541991208424</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="F4" t="n">
-        <v>367.2282643338153</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="G4" t="n">
-        <v>198.9742104332609</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784965</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>680.1130112616399</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="U4" t="n">
-        <v>680.1130112616399</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="V4" t="n">
-        <v>680.1130112616399</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="W4" t="n">
-        <v>680.1130112616399</v>
+        <v>575.8072331779779</v>
       </c>
       <c r="X4" t="n">
-        <v>680.1130112616399</v>
+        <v>575.8072331779779</v>
       </c>
       <c r="Y4" t="n">
-        <v>680.1130112616399</v>
+        <v>352.6951719946212</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1072.224520342606</v>
+        <v>1224.909970779226</v>
       </c>
       <c r="C5" t="n">
-        <v>679.0490188455369</v>
+        <v>831.7344692821566</v>
       </c>
       <c r="D5" t="n">
-        <v>293.6078900622047</v>
+        <v>831.7344692821566</v>
       </c>
       <c r="E5" t="n">
-        <v>293.6078900622047</v>
+        <v>429.1509443987011</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634765</v>
+        <v>416.2969099690829</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475487</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475487</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132837</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.074736123375</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N5" t="n">
-        <v>1602.886019760837</v>
+        <v>1286.935244793073</v>
       </c>
       <c r="O5" t="n">
-        <v>2042.925620653166</v>
+        <v>1726.974845685402</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737744</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737744</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737744</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737744</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737744</v>
+        <v>1851.66173537634</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737744</v>
+        <v>1595.909005810939</v>
       </c>
       <c r="V5" t="n">
-        <v>1832.676160441262</v>
+        <v>1595.909005810939</v>
       </c>
       <c r="W5" t="n">
-        <v>1461.67712540955</v>
+        <v>1224.909970779226</v>
       </c>
       <c r="X5" t="n">
-        <v>1072.224520342606</v>
+        <v>1224.909970779226</v>
       </c>
       <c r="Y5" t="n">
-        <v>1072.224520342606</v>
+        <v>1224.909970779226</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>661.3930085297613</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>510.7387780898536</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>510.7387780898536</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284328</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>959.915873575022</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591872</v>
+        <v>1327.194567652344</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182853</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182853</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737744</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737744</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737744</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>992.5035598952154</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>813.1893429707227</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>693.1467564676029</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="C7" t="n">
-        <v>522.9416385335921</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="D7" t="n">
-        <v>367.3085254361068</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="E7" t="n">
-        <v>211.7497132953093</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="F7" t="n">
-        <v>211.7497132953093</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475487</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784965</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="Y7" t="n">
-        <v>878.3547751589042</v>
+        <v>146.4338220642345</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1089.538396610638</v>
+        <v>687.4558735466646</v>
       </c>
       <c r="C8" t="n">
-        <v>696.3628951135686</v>
+        <v>687.4558735466646</v>
       </c>
       <c r="D8" t="n">
-        <v>473.3297600431586</v>
+        <v>610.2099977937452</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431586</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O8" t="n">
-        <v>1973.427801529577</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P8" t="n">
-        <v>2321.615293661099</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2199.134950018231</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>1857.028140721749</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>1486.029105690037</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>1486.029105690037</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1089.538396610638</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4896,7 +4896,7 @@
         <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.7100132738371</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X10" t="n">
-        <v>937.0300931484951</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.9180319651384</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.222718167679</v>
+        <v>1135.015795124461</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>800.8136995685214</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5075,16 +5075,16 @@
         <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2675.578323579424</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2376.375563693905</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X11" t="n">
-        <v>2058.719233773156</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>2058.719233773156</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>474.8005932364097</v>
+        <v>216.7257955609487</v>
       </c>
       <c r="C13" t="n">
-        <v>376.3917504485927</v>
+        <v>118.3169527731321</v>
       </c>
       <c r="D13" t="n">
-        <v>376.3917504485927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>292.6292134539891</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,49 +5200,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027739</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118225</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138165</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1358.887836386195</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1145.24531977429</v>
+        <v>936.0428256245448</v>
       </c>
       <c r="V13" t="n">
-        <v>951.0622497413083</v>
+        <v>741.8597555915629</v>
       </c>
       <c r="W13" t="n">
-        <v>739.5281228186798</v>
+        <v>530.3256286689344</v>
       </c>
       <c r="X13" t="n">
-        <v>739.5281228186798</v>
+        <v>368.0415815981114</v>
       </c>
       <c r="Y13" t="n">
-        <v>588.212336781517</v>
+        <v>216.7257955609487</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1740.987110988345</v>
+        <v>1374.479701206713</v>
       </c>
       <c r="C14" t="n">
-        <v>1419.607884637469</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="D14" t="n">
-        <v>1105.963031000331</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="E14" t="n">
-        <v>775.175781263069</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="F14" t="n">
-        <v>430.077617939241</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>88.71113757343791</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>88.71113757343791</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.239105293021</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>3011.239105293021</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2712.036345407502</v>
+        <v>2345.52893562587</v>
       </c>
       <c r="X14" t="n">
-        <v>2394.380015486753</v>
+        <v>2027.872605705121</v>
       </c>
       <c r="Y14" t="n">
-        <v>2069.685581553548</v>
+        <v>1703.178171771916</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>229.6382415477191</v>
+        <v>160.5279704919324</v>
       </c>
       <c r="C16" t="n">
-        <v>229.6382415477191</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
         <v>62.11912770411553</v>
@@ -5446,7 +5446,7 @@
         <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1439.9323084539</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1276.009531768328</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1062.367015156422</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V16" t="n">
-        <v>868.1839451234406</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="W16" t="n">
-        <v>656.649818200812</v>
+        <v>530.3256286689339</v>
       </c>
       <c r="X16" t="n">
-        <v>494.3657711299892</v>
+        <v>368.0415815981108</v>
       </c>
       <c r="Y16" t="n">
-        <v>343.0499850928264</v>
+        <v>216.7257955609481</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
         <v>68.7795079292422</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5674,25 +5674,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5835,13 +5835,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229927</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222411</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960409</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>112.6101842924878</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>596.176270190801</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,22 +6151,22 @@
         <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133163</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N25" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>606.9665031662622</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6251,10 +6251,10 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6303,25 +6303,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>123.8559155359222</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>123.8559155359222</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>607.4220014342354</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1325.82389827615</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1842.344180867131</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2247.965549583528</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286449</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218597</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
         <v>664.1257379390258</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142174</v>
+        <v>345.9036637142171</v>
       </c>
       <c r="H29" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678962</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662619</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
         <v>2360.20170202598</v>
@@ -6479,34 +6479,34 @@
         <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174142</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164849</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420325</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.56169864057</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848359</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1501.557331157736</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
@@ -6628,7 +6628,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222128</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654423</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463654</v>
+        <v>904.3560533993079</v>
       </c>
       <c r="F32" t="n">
-        <v>622.898782305708</v>
+        <v>601.3807258108109</v>
       </c>
       <c r="G32" t="n">
-        <v>317.146589723076</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189318</v>
+        <v>91.97314162835514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076151</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495896</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770514</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2140.312152577623</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2685.624846197022</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055614</v>
+        <v>3149.851074113023</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923633</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038076</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908492</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397274</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761237</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394121</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291772</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154194</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.43530700416</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807924</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408846</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623649</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732527</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563845</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288499</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076151</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227153</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210285</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1015.065931291253</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1670.843902501812</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.896622945109</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216397</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.03536301433</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746246</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965104</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918645</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237442</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123116</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546494</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834598</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431872</v>
+        <v>86.73045008374207</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076151</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076151</v>
+        <v>143.5810516071564</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507034</v>
+        <v>225.4160927170982</v>
       </c>
       <c r="L34" t="n">
-        <v>315.5102292245032</v>
+        <v>389.543732590898</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188091</v>
+        <v>575.835310929162</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770888</v>
+        <v>870.677065535354</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145867</v>
+        <v>1145.033953152045</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649517</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746638</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.62318930858</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420494</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518093</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689359</v>
+        <v>987.7859626250194</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439548</v>
+        <v>835.7257283273688</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000905</v>
+        <v>666.3144371400715</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124385</v>
+        <v>546.1532258045797</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584467</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6920,25 +6920,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7020,10 +7020,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,19 +7099,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960405</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,19 +7196,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.46733722469</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498593</v>
@@ -7448,13 +7448,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7494,10 +7494,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7576,19 +7576,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,22 +7673,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7819,37 +7819,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>640.3852542562121</v>
+        <v>637.5111168138458</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>98.97569223556155</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>474.3058082742403</v>
+        <v>611.1777065035427</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083975</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321633</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>400.1079634407293</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>283.4906887404989</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8304,10 +8304,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>554.0405189317931</v>
+        <v>572.6307885465566</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,19 +8459,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>320.6920226450452</v>
       </c>
       <c r="Q8" t="n">
-        <v>188.9766897477674</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8544,10 +8544,10 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>270.9005442600802</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>153.277245266684</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8766,25 +8766,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L12" t="n">
-        <v>290.5921503773105</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>459.8553156798577</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9170,7 +9170,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,7 +9249,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
@@ -9258,10 +9258,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9407,7 +9407,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
@@ -9483,16 +9483,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>163.9964000092958</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9714,22 +9714,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>133.4455245943154</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>688.0608343844987</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>133.4455245943151</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>89.59693533333335</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>236.1748646101137</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>723.5863546247123</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,22 +10425,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069881</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>168.5060516210923</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10601,7 +10601,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10668,13 +10668,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>192.2856137303845</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11142,13 +11142,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N45" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>300.1699354101292</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>297.8137645877544</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>27.362622753452</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>77.40085862370435</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>39.54934357309872</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>237.0692670214289</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>56.64177929133083</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
         <v>82.92491162465757</v>
@@ -23668,7 +23668,7 @@
         <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
         <v>60.68516871456094</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>73.47728055754222</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>836940.389870482</v>
+        <v>835737.2946429615</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>836940.389870482</v>
+        <v>835737.2946429615</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752796.8750359892</v>
+        <v>752796.8750359893</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468863.6630427276</v>
+        <v>468863.6630427277</v>
       </c>
       <c r="C2" t="n">
         <v>468863.6630427276</v>
@@ -26320,40 +26320,40 @@
         <v>468863.6630427276</v>
       </c>
       <c r="E2" t="n">
+        <v>414333.4609034412</v>
+      </c>
+      <c r="F2" t="n">
         <v>414333.4609034411</v>
       </c>
-      <c r="F2" t="n">
-        <v>414333.4609034412</v>
-      </c>
       <c r="G2" t="n">
+        <v>468863.6630427275</v>
+      </c>
+      <c r="H2" t="n">
         <v>468863.6630427276</v>
       </c>
-      <c r="H2" t="n">
-        <v>468863.6630427277</v>
-      </c>
       <c r="I2" t="n">
-        <v>468863.6630427277</v>
+        <v>468863.6630427276</v>
       </c>
       <c r="J2" t="n">
+        <v>468863.6630427282</v>
+      </c>
+      <c r="K2" t="n">
+        <v>468863.6630427276</v>
+      </c>
+      <c r="L2" t="n">
         <v>468863.6630427279</v>
-      </c>
-      <c r="K2" t="n">
-        <v>468863.6630427279</v>
-      </c>
-      <c r="L2" t="n">
-        <v>468863.663042728</v>
       </c>
       <c r="M2" t="n">
         <v>468863.6630427275</v>
       </c>
       <c r="N2" t="n">
-        <v>468863.6630427276</v>
+        <v>468863.6630427277</v>
       </c>
       <c r="O2" t="n">
         <v>468863.6630427276</v>
       </c>
       <c r="P2" t="n">
-        <v>468863.6630427277</v>
+        <v>468863.6630427275</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918555</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062229</v>
+        <v>22558.4295340134</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>47425.32553668198</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945022</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728578</v>
+        <v>62456.24177539673</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962307</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.6940427712</v>
+        <v>27767.69404277119</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840233</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840232</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26433,7 +26433,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="H4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="I4" t="n">
         <v>173460.5839839468</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.3011400137</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.3011400137</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,13 +26497,13 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173845</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9289.504126835149</v>
+        <v>13640.9499411298</v>
       </c>
       <c r="C6" t="n">
-        <v>191494.4524186906</v>
+        <v>187499.6069751849</v>
       </c>
       <c r="D6" t="n">
-        <v>184326.1313970191</v>
+        <v>176589.842173628</v>
       </c>
       <c r="E6" t="n">
-        <v>123323.2122371915</v>
+        <v>123113.480690502</v>
       </c>
       <c r="F6" t="n">
-        <v>235445.7737112361</v>
+        <v>235236.0421645465</v>
       </c>
       <c r="G6" t="n">
-        <v>189807.9842065792</v>
+        <v>189807.9842065791</v>
       </c>
       <c r="H6" t="n">
+        <v>237233.3097432611</v>
+      </c>
+      <c r="I6" t="n">
+        <v>237233.3097432611</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30707.67730054937</v>
+      </c>
+      <c r="K6" t="n">
+        <v>230993.5413404783</v>
+      </c>
+      <c r="L6" t="n">
+        <v>171762.1151953851</v>
+      </c>
+      <c r="M6" t="n">
+        <v>193980.78527245</v>
+      </c>
+      <c r="N6" t="n">
         <v>237233.3097432613</v>
-      </c>
-      <c r="I6" t="n">
-        <v>237233.3097432613</v>
-      </c>
-      <c r="J6" t="n">
-        <v>24191.3921459763</v>
-      </c>
-      <c r="K6" t="n">
-        <v>230993.5413404785</v>
-      </c>
-      <c r="L6" t="n">
-        <v>175810.9524058573</v>
-      </c>
-      <c r="M6" t="n">
-        <v>195032.480283638</v>
-      </c>
-      <c r="N6" t="n">
-        <v>237233.3097432612</v>
       </c>
       <c r="O6" t="n">
         <v>209465.61570049</v>
       </c>
       <c r="P6" t="n">
-        <v>237233.3097432613</v>
+        <v>237233.3097432611</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
         <v>71.07831239473194</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344359</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344359</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,7 +26805,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -26814,16 +26814,16 @@
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.344353009519</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>59.28165692085247</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660723</v>
+        <v>78.07030221924592</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551313</v>
+        <v>17.58004954287448</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344359</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485913</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773701</v>
+        <v>659.362224997165</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240741</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>59.28165692085247</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344359</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485913</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>242.4277555211131</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>267.5715762713704</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50.09571640609946</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>39.78297167134685</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>171.9684103248036</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27597,13 +27597,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>240.4753947424451</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,16 +27619,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>174.1455136814236</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>37.9854013762598</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27667,19 +27667,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862745</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>104.1482203229586</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>50.04249597330386</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27837,10 +27837,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>154.9589128618939</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>160.7839137757931</v>
+        <v>305.1133005001087</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28062,7 +28062,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28071,10 +28071,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>74.04686661181526</v>
       </c>
       <c r="X10" t="n">
-        <v>220.1269184951917</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28746,10 +28746,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.636002634528666</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28761,13 +28761,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.7104901066881</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,13 +28989,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>35.7104901066877</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29223,10 +29223,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>35.7104901066877</v>
       </c>
       <c r="M25" t="n">
-        <v>28.01250026485258</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,16 +29296,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>30.27223765901209</v>
+      </c>
+      <c r="L26" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
@@ -29314,10 +29314,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>30.27223765901226</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29509,31 +29509,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901181</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29542,43 +29542,43 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196565902</v>
+        <v>81.10808140893386</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>106.8683420224735</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>94.97643844044632</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30171,22 +30171,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>5.636002634528637</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.636002634528936</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30402,31 +30402,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>28.01250026485259</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.636002634528481</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30891,13 +30891,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5.636002634528481</v>
+      </c>
+      <c r="Q46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5.636002634529518</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>490.6602026584848</v>
+        <v>487.7860652161186</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9.378756902228204</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>381.9186862249284</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344359</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>250.9894721029452</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>133.1892414995736</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35024,10 +35024,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>468.6684060776265</v>
+        <v>487.2586756923899</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,19 +35179,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>170.39057540412</v>
       </c>
       <c r="Q8" t="n">
-        <v>44.47799132937524</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35264,10 +35264,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>178.2129853711913</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>66.19388044736931</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L12" t="n">
-        <v>200.5318035203923</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>374.483202825691</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,7 +35969,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133864</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36203,16 +36203,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>73.93605315237758</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.63600263452903</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,13 +36285,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594797</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.00106726098205</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>595.6737123351868</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36519,10 +36519,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287077</v>
       </c>
       <c r="M25" t="n">
-        <v>216.1858117176445</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907917</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36610,10 +36610,10 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700714</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.00106726098173</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>145.1867114541997</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851008</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36841,7 +36841,7 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039233</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>631.1992325754004</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176211</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458576</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066589</v>
+        <v>464.4844572792976</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111304</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738832574</v>
+        <v>43.49509683160057</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576762</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>75.81849273220344</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>76.79385455031438</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>283.1497498932383</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.37649167503</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371501</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380294</v>
+        <v>233.8669559106681</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102237</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37388,13 +37388,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>102.2252668734663</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37467,10 +37467,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>171.4214974565486</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37479,10 +37479,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,16 +37713,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724866</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37944,7 +37944,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N45" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38187,13 +38187,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7230387724877</v>
+        <v>126.7230387724866</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
